--- a/ETF Summary Report.xlsx
+++ b/ETF Summary Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manthan Patel\Desktop\Position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manthan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48EAC1B-8ED3-4545-9383-BD922F72B396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842633E-891E-5A4C-9ED1-EBB23F283F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manthan" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manthan!$B$1:$E$31</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -287,11 +288,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,16 +611,16 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -635,7 +637,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -646,13 +648,13 @@
         <v>34</v>
       </c>
       <c r="D2" s="3">
-        <v>6347</v>
-      </c>
-      <c r="E2" s="3">
-        <v>28.74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6468</v>
+      </c>
+      <c r="E2" s="4">
+        <v>28.740374149659864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -663,13 +665,13 @@
         <v>35</v>
       </c>
       <c r="D3" s="3">
-        <v>2943</v>
-      </c>
-      <c r="E3" s="3">
-        <v>61.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2987</v>
+      </c>
+      <c r="E3" s="4">
+        <v>61.196317375292935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -680,13 +682,13 @@
         <v>39</v>
       </c>
       <c r="D4" s="3">
-        <v>5082</v>
-      </c>
-      <c r="E4" s="3">
-        <v>93.69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5159</v>
+      </c>
+      <c r="E4" s="4">
+        <v>93.686865671641797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -697,13 +699,13 @@
         <v>42</v>
       </c>
       <c r="D5" s="3">
-        <v>653</v>
-      </c>
-      <c r="E5" s="3">
-        <v>128.61000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="E5" s="4">
+        <v>128.60936363636364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -714,13 +716,13 @@
         <v>64</v>
       </c>
       <c r="D6" s="3">
-        <v>990</v>
-      </c>
-      <c r="E6" s="3">
-        <v>91.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>91.778208955223874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -731,13 +733,13 @@
         <v>58</v>
       </c>
       <c r="D7" s="3">
-        <v>17977</v>
-      </c>
-      <c r="E7" s="3">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18201</v>
+      </c>
+      <c r="E7" s="4">
+        <v>24.297907807263339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -748,13 +750,13 @@
         <v>51</v>
       </c>
       <c r="D8" s="3">
-        <v>16571</v>
-      </c>
-      <c r="E8" s="3">
-        <v>31.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16826</v>
+      </c>
+      <c r="E8" s="4">
+        <v>31.489545346487578</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -765,13 +767,13 @@
         <v>43</v>
       </c>
       <c r="D9" s="3">
-        <v>11061</v>
-      </c>
-      <c r="E9" s="3">
-        <v>32.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11228</v>
+      </c>
+      <c r="E9" s="4">
+        <v>32.797620235126466</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -782,13 +784,13 @@
         <v>37</v>
       </c>
       <c r="D10" s="3">
-        <v>3422</v>
-      </c>
-      <c r="E10" s="3">
-        <v>59.32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3475</v>
+      </c>
+      <c r="E10" s="4">
+        <v>59.316644604316544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -799,13 +801,13 @@
         <v>61</v>
       </c>
       <c r="D11" s="3">
-        <v>752</v>
-      </c>
-      <c r="E11" s="3">
-        <v>110.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="E11" s="4">
+        <v>110.25467805519054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -816,13 +818,13 @@
         <v>55</v>
       </c>
       <c r="D12" s="3">
-        <v>448</v>
-      </c>
-      <c r="E12" s="3">
-        <v>153.07</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="E12" s="4">
+        <v>153.05731277533042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -833,13 +835,13 @@
         <v>38</v>
       </c>
       <c r="D13" s="3">
-        <v>3408</v>
-      </c>
-      <c r="E13" s="3">
-        <v>99.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3449</v>
+      </c>
+      <c r="E13" s="4">
+        <v>99.014650623369079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -850,13 +852,13 @@
         <v>56</v>
       </c>
       <c r="D14" s="3">
-        <v>4671</v>
-      </c>
-      <c r="E14" s="3">
-        <v>41.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4854</v>
+      </c>
+      <c r="E14" s="4">
+        <v>41.215852904820764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -867,13 +869,13 @@
         <v>46</v>
       </c>
       <c r="D15" s="3">
-        <v>1590</v>
-      </c>
-      <c r="E15" s="3">
-        <v>155.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1624</v>
+      </c>
+      <c r="E15" s="4">
+        <v>155.48120689655173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -884,13 +886,13 @@
         <v>59</v>
       </c>
       <c r="D16" s="3">
-        <v>414</v>
-      </c>
-      <c r="E16" s="3">
-        <v>71.16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="E16" s="4">
+        <v>71.173738317757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -901,13 +903,13 @@
         <v>40</v>
       </c>
       <c r="D17" s="3">
-        <v>13461</v>
-      </c>
-      <c r="E17" s="3">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13676</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10.399371161158232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -918,13 +920,13 @@
         <v>41</v>
       </c>
       <c r="D18" s="3">
-        <v>19652</v>
-      </c>
-      <c r="E18" s="3">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19951</v>
+      </c>
+      <c r="E18" s="4">
+        <v>23.099100796952534</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -935,13 +937,13 @@
         <v>45</v>
       </c>
       <c r="D19" s="3">
-        <v>2414</v>
-      </c>
-      <c r="E19" s="3">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2445</v>
+      </c>
+      <c r="E19" s="4">
+        <v>31.200507157464216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -952,13 +954,13 @@
         <v>52</v>
       </c>
       <c r="D20" s="3">
-        <v>1042</v>
-      </c>
-      <c r="E20" s="3">
-        <v>88.07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+      <c r="E20" s="4">
+        <v>88.056944181646159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -969,13 +971,13 @@
         <v>57</v>
       </c>
       <c r="D21" s="3">
-        <v>497</v>
-      </c>
-      <c r="E21" s="3">
-        <v>233.71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+      <c r="E21" s="4">
+        <v>233.71541666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -986,13 +988,13 @@
         <v>47</v>
       </c>
       <c r="D22" s="3">
-        <v>16183</v>
-      </c>
-      <c r="E22" s="3">
-        <v>24.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16428</v>
+      </c>
+      <c r="E22" s="4">
+        <v>24.398210372534692</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1003,13 +1005,13 @@
         <v>50</v>
       </c>
       <c r="D23" s="3">
-        <v>1093</v>
-      </c>
-      <c r="E23" s="3">
-        <v>89.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+      <c r="E23" s="4">
+        <v>89.49648014440433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1020,13 +1022,13 @@
         <v>54</v>
       </c>
       <c r="D24" s="3">
-        <v>5850</v>
-      </c>
-      <c r="E24" s="3">
-        <v>16.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5932</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16.858755900202294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1037,13 +1039,13 @@
         <v>48</v>
       </c>
       <c r="D25" s="3">
-        <v>1349</v>
-      </c>
-      <c r="E25" s="3">
-        <v>294.61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+      <c r="E25" s="4">
+        <v>294.59596916299563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1054,13 +1056,13 @@
         <v>53</v>
       </c>
       <c r="D26" s="3">
-        <v>12794</v>
-      </c>
-      <c r="E26" s="3">
-        <v>12.21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12969</v>
+      </c>
+      <c r="E26" s="4">
+        <v>12.209190377052973</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1071,13 +1073,13 @@
         <v>33</v>
       </c>
       <c r="D27" s="3">
-        <v>4799</v>
-      </c>
-      <c r="E27" s="3">
-        <v>86.49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4810</v>
+      </c>
+      <c r="E27" s="4">
+        <v>86.491349272349268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1088,13 +1090,13 @@
         <v>44</v>
       </c>
       <c r="D28" s="3">
-        <v>6652</v>
-      </c>
-      <c r="E28" s="3">
-        <v>28.98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6752</v>
+      </c>
+      <c r="E28" s="4">
+        <v>28.978667061611372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1105,13 +1107,13 @@
         <v>36</v>
       </c>
       <c r="D29" s="3">
-        <v>475</v>
-      </c>
-      <c r="E29" s="3">
-        <v>978.59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+      <c r="E29" s="4">
+        <v>978.51375518672205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1122,13 +1124,13 @@
         <v>60</v>
       </c>
       <c r="D30" s="3">
-        <v>462</v>
-      </c>
-      <c r="E30" s="3">
-        <v>171.98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="E30" s="4">
+        <v>172.0038805970149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1139,10 +1141,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="3">
-        <v>795</v>
-      </c>
-      <c r="E31" s="3">
-        <v>98.43</v>
+        <v>805</v>
+      </c>
+      <c r="E31" s="4">
+        <v>98.433105590062127</v>
       </c>
     </row>
   </sheetData>

--- a/ETF Summary Report.xlsx
+++ b/ETF Summary Report.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manthan/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21814-26C1-6F45-AEF8-1C021C5D3B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manthan" sheetId="1" r:id="rId4"/>
+    <sheet name="Manthan" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>SR. NO.</t>
   </si>
@@ -194,36 +215,36 @@
   </si>
   <si>
     <t>TNIDETF</t>
+  </si>
+  <si>
+    <t>GROWWPOWER</t>
+  </si>
+  <si>
+    <t>CHEMICAL</t>
+  </si>
+  <si>
+    <t>Groww BSE Power ETF</t>
+  </si>
+  <si>
+    <t>Kotak Nifty Chemicals ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -249,47 +270,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,22 +303,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -515,7 +583,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -533,7 +601,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -562,7 +630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -587,7 +655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -612,7 +680,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -662,7 +730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -712,7 +780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -737,7 +805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -762,7 +830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -775,9 +843,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -794,7 +868,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -812,7 +886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -837,7 +911,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +936,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -887,7 +961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -912,7 +986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -937,7 +1011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -962,7 +1036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -987,7 +1061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1012,7 +1086,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1111,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1050,9 +1124,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1066,7 +1146,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1084,7 +1164,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1113,7 +1193,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1218,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1243,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1268,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1293,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1318,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1343,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1288,7 +1368,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1313,7 +1393,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1326,526 +1406,570 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.8516" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.6719" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.83203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="5">
-        <v>6468</v>
+        <v>6754</v>
       </c>
       <c r="E2" s="6">
-        <v>28.7403741496599</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="5">
         <v>2987</v>
       </c>
       <c r="E3" s="6">
-        <v>61.1963173752929</v>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="4">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>5159</v>
+        <v>5405</v>
       </c>
       <c r="E4" s="6">
-        <v>93.6868656716418</v>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
+        <v>93.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="4">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="5">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="E5" s="6">
-        <v>128.609363636364</v>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+        <v>128.12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="4">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="5">
-        <v>1005</v>
+        <v>1415</v>
       </c>
       <c r="E6" s="6">
-        <v>91.7782089552239</v>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+        <v>93.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="4">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="5">
-        <v>18201</v>
+        <v>18371</v>
       </c>
       <c r="E7" s="6">
-        <v>24.2979078072633</v>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+        <v>24.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="4">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5">
-        <v>16826</v>
+        <v>17050</v>
       </c>
       <c r="E8" s="6">
-        <v>31.4895453464876</v>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="4">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="5">
-        <v>11228</v>
+        <v>11508</v>
       </c>
       <c r="E9" s="6">
-        <v>32.7976202351265</v>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="4">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5">
-        <v>3475</v>
+        <v>3547</v>
       </c>
       <c r="E10" s="6">
-        <v>59.3166446043165</v>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+        <v>59.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="5">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="E11" s="6">
-        <v>153.057312775330</v>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+        <v>152.38999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="4">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5">
-        <v>3449</v>
+        <v>3491</v>
       </c>
       <c r="E12" s="6">
-        <v>99.01465062336911</v>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+        <v>98.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="4">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5">
-        <v>4854</v>
+        <v>5090</v>
       </c>
       <c r="E13" s="6">
-        <v>41.2158529048208</v>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+        <v>41.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="4">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5">
-        <v>1624</v>
+        <v>1884</v>
       </c>
       <c r="E14" s="6">
-        <v>155.481206896552</v>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
+        <v>155.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="4">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="5">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="E15" s="6">
-        <v>71.173738317757</v>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
+        <v>71.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="4">
+      <c r="B16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="5">
-        <v>13676</v>
+        <v>15372</v>
       </c>
       <c r="E16" s="6">
-        <v>10.3993711611582</v>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="4">
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="5">
-        <v>19951</v>
+        <v>20131</v>
       </c>
       <c r="E17" s="6">
-        <v>23.0991007969525</v>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="5">
-        <v>2445</v>
+        <v>2715</v>
       </c>
       <c r="E18" s="6">
-        <v>31.2005071574642</v>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="4">
+      <c r="B19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="5">
-        <v>1057</v>
+        <v>1505</v>
       </c>
       <c r="E19" s="6">
-        <v>88.0569441816462</v>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
+        <v>88.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="4">
+      <c r="B20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="5">
-        <v>504</v>
+        <v>572</v>
       </c>
       <c r="E20" s="6">
-        <v>233.715416666667</v>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
+        <v>233.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="4">
+      <c r="B21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="5">
-        <v>16428</v>
+        <v>16598</v>
       </c>
       <c r="E21" s="6">
-        <v>24.3982103725347</v>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>22</v>
       </c>
-      <c r="B22" t="s" s="4">
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="5">
-        <v>1108</v>
+        <v>1158</v>
       </c>
       <c r="E22" s="6">
-        <v>89.4964801444043</v>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>23</v>
       </c>
-      <c r="B23" t="s" s="4">
+      <c r="B23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="5">
-        <v>5932</v>
+        <v>6186</v>
       </c>
       <c r="E23" s="6">
-        <v>16.8587559002023</v>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>24</v>
       </c>
-      <c r="B24" t="s" s="4">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="5">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="E24" s="6">
-        <v>294.595969162996</v>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
+        <v>294.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>25</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C25" t="s" s="4">
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="5">
-        <v>12969</v>
+        <v>13307</v>
       </c>
       <c r="E25" s="6">
-        <v>12.209190377053</v>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>26</v>
       </c>
-      <c r="B26" t="s" s="4">
+      <c r="B26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s" s="4">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="5">
-        <v>4810</v>
+        <v>5250</v>
       </c>
       <c r="E26" s="6">
-        <v>86.4913492723493</v>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
+        <v>86.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>27</v>
       </c>
-      <c r="B27" t="s" s="4">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="5">
-        <v>6752</v>
+        <v>7558</v>
       </c>
       <c r="E27" s="6">
-        <v>28.9786670616114</v>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>28</v>
       </c>
-      <c r="B28" t="s" s="4">
+      <c r="B28" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C28" t="s" s="4">
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="5">
         <v>482</v>
       </c>
       <c r="E28" s="6">
-        <v>978.5137551867221</v>
-      </c>
-    </row>
-    <row r="29" ht="15" customHeight="1">
+        <v>978.51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>30</v>
       </c>
-      <c r="B29" t="s" s="4">
+      <c r="B29" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" t="s" s="4">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="5">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="E29" s="6">
-        <v>98.4331055900621</v>
+        <v>98.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="5">
+        <v>418</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9.68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="5">
+        <v>144</v>
+      </c>
+      <c r="E31" s="6">
+        <v>27.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/ETF Summary Report.xlsx
+++ b/ETF Summary Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manthan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B21814-26C1-6F45-AEF8-1C021C5D3B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3485B9-A503-5545-A829-FAAECF4627F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>SR. NO.</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>Kotak Nifty Chemicals ETF</t>
+  </si>
+  <si>
+    <t>GOLDIETF</t>
+  </si>
+  <si>
+    <t>SILVERIETF</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Gold ETF</t>
+  </si>
+  <si>
+    <t>ICICI Prudential Silver ETF</t>
   </si>
 </sst>
 </file>
@@ -287,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -295,6 +307,8 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1425,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1967,6 +1981,40 @@
         <v>27.81</v>
       </c>
     </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>33</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="7">
+        <v>201</v>
+      </c>
+      <c r="E32" s="7">
+        <v>123.86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>34</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="7">
+        <v>108</v>
+      </c>
+      <c r="E33" s="7">
+        <v>229.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
